--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833771.6534318886</v>
+        <v>861043.5170008271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.204079718</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6915908.8241562</v>
+        <v>7448307.896268604</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>59.59474737021493</v>
+        <v>163.7746790075801</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>3.423392126084355</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>302.2827577803681</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.1221594290542</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>30.11288841831361</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>430.4313829879808</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>53.40840756313693</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1297,10 +1299,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>134.7806822622883</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>312.7974431297788</v>
       </c>
       <c r="G11" t="n">
-        <v>290.713912803696</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.31336456303993</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.9539245507275</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>272.5018050100015</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.1591039832982</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.5392963407818</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2956,16 +2958,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>50.29424103733402</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193457</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>135.1077460700513</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847805</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,19 +3474,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>157.8824880649899</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>173.2212647391125</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790288</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>217.0832043164918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.8387674910483</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>67.84972440587271</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>322.9697359233056</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>177.7017008738665</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.477214236518</v>
+        <v>1518.10729979241</v>
       </c>
       <c r="C2" t="n">
-        <v>573.3347414199409</v>
+        <v>1484.005231016238</v>
       </c>
       <c r="D2" t="n">
-        <v>137.4249565943854</v>
+        <v>1048.095446190682</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866109</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1963.754649317546</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1544.612185896857</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>1540.366466236914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2354.564847196633</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,13 +4500,13 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.225803160042</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.083330343465</v>
+        <v>818.474145874641</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>786.6047650894895</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4568,22 +4570,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.525373644949</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>990.3147246321325</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1182.13334335112</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>977.6515424412072</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>542.872367705873</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>798.2938782624194</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1004.156428545654</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>999.910708885711</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.9943193530033</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>613.4326078362283</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>447.5546150377509</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.5546150377509</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>447.5546150377509</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635786</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539531</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2533.918723136187</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2288.039276714642</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2009.606275967748</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.650767838178</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.62436342447</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1205.232608757882</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>977.8129380719904</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1211.418991062705</v>
+        <v>2408.082100998613</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.418991062705</v>
+        <v>1969.939628182037</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.418991062705</v>
+        <v>1534.029843356481</v>
       </c>
       <c r="E11" t="n">
-        <v>777.6442462210002</v>
+        <v>1100.255098514776</v>
       </c>
       <c r="F11" t="n">
-        <v>349.776816630208</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.516638580383</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.516638580383</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.516638580383</v>
       </c>
       <c r="O11" t="n">
-        <v>1880.509478614942</v>
+        <v>3313.69630515069</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984086</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259697</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>4066.665713193524</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3661.810258604557</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>3242.667795183868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.418991062705</v>
+        <v>2834.381671483521</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>750.6905954094008</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6905954094008</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883403</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753834</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340125</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673538</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1792.237621104267</v>
+        <v>2119.011475323127</v>
       </c>
       <c r="C14" t="n">
-        <v>1354.09514828769</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D14" t="n">
-        <v>918.1853634621348</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E14" t="n">
-        <v>484.4106186204299</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963762</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L14" t="n">
-        <v>1880.509478614942</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1880.509478614942</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>1880.509478614942</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>1880.509478614942</v>
+        <v>3313.69630515069</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984086</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4619.501567394155</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4399.434340267194</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4140.212037584211</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>3777.595087518037</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838882</v>
+        <v>3372.73963292907</v>
       </c>
       <c r="X14" t="n">
-        <v>2387.177519418192</v>
+        <v>2953.597169508381</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.537191589175</v>
+        <v>2545.311045808035</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="L15" t="n">
-        <v>1075.248920375613</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.248920375613</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.248920375613</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.248920375613</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="P15" t="n">
-        <v>1075.248920375613</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1615.987859007688</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2654.546840516893</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2408.667394095348</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2130.234393348453</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5522,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,22 +5761,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>3184.458419759166</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>3011.896708242391</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>2846.018715443914</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>2676.260711694651</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>2499.553657656407</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.382823542349</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4408.07037637391</v>
       </c>
       <c r="V22" t="n">
-        <v>2013.948813008508</v>
+        <v>4121.114868244341</v>
       </c>
       <c r="W22" t="n">
-        <v>1741.922408594799</v>
+        <v>3849.088463830632</v>
       </c>
       <c r="X22" t="n">
-        <v>1496.530653928212</v>
+        <v>3603.696709164045</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>3376.277038478153</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3456.484824172876</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>3283.9231126561</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>3118.045119857623</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>4686.503377120805</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.070376373911</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>4121.114868244342</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>4121.114868244342</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>3875.723113577754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>3648.303442891863</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,13 +6703,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
         <v>4132.862346968674</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.1554751127505</v>
+        <v>3343.699788461171</v>
       </c>
       <c r="C34" t="n">
-        <v>809.5937635959755</v>
+        <v>3171.138076944395</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>3005.260084145918</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>2835.502080396655</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2658.795026358412</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>4845.744745822809</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>4567.311745075915</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>4280.356236946345</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>4008.329832532637</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>3762.938077866049</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>3535.518407180158</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,19 +6943,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.042013538981</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>4686.503377120805</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>4399.547868991236</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7174,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3435.538389938438</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C40" t="n">
-        <v>3262.976678421663</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D40" t="n">
-        <v>3097.098685623185</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E40" t="n">
-        <v>2927.340681873923</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F40" t="n">
-        <v>2750.633627835679</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G40" t="n">
-        <v>2585.042352861507</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
         <v>2496.382403636182</v>
@@ -7372,10 +7374,10 @@
         <v>4029.747653827265</v>
       </c>
       <c r="X40" t="n">
-        <v>3854.776679343313</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y40" t="n">
-        <v>3627.357008657425</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1147.736370643971</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>709.5938978273948</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>709.5938978273948</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>275.81915298569</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963762</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K41" t="n">
-        <v>750.6905954094008</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094008</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>750.6905954094008</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>2139.818986914647</v>
+        <v>3313.69630515069</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984086</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2401.464528249915</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>1982.322064829226</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>1574.035941128879</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677763</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="M42" t="n">
-        <v>56.12639965677763</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="N42" t="n">
-        <v>56.12639965677763</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="O42" t="n">
-        <v>484.0630267508877</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="P42" t="n">
-        <v>1178.627222503511</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.156822031188</v>
+        <v>1081.69693748336</v>
       </c>
       <c r="C43" t="n">
-        <v>1096.156822031188</v>
+        <v>909.1352259665852</v>
       </c>
       <c r="D43" t="n">
-        <v>930.2788292327109</v>
+        <v>743.2572331681079</v>
       </c>
       <c r="E43" t="n">
-        <v>760.5208254834481</v>
+        <v>573.4992294188451</v>
       </c>
       <c r="F43" t="n">
-        <v>583.8137714452043</v>
+        <v>396.7921753806013</v>
       </c>
       <c r="G43" t="n">
-        <v>418.2224964710319</v>
+        <v>231.200900406429</v>
       </c>
       <c r="H43" t="n">
-        <v>278.3203221614065</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719073</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L43" t="n">
-        <v>969.2083944398684</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2784.902161544253</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2625.66079284225</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.781346420705</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2101.34834567381</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V43" t="n">
-        <v>2032.813270516363</v>
+        <v>2018.353385968535</v>
       </c>
       <c r="W43" t="n">
-        <v>1760.786866102655</v>
+        <v>1746.326981554827</v>
       </c>
       <c r="X43" t="n">
-        <v>1515.395111436067</v>
+        <v>1500.935226888239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1287.975440750175</v>
+        <v>1273.515556202347</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1971.734288653627</v>
+        <v>2408.082100998613</v>
       </c>
       <c r="C44" t="n">
-        <v>1533.59181583705</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1097.682031011495</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>663.90728616979</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>236.0398565789978</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L44" t="n">
-        <v>722.6273955810118</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.191591333635</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2111.755787086258</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838882</v>
+        <v>3313.69630515069</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838882</v>
+        <v>4142.006179984086</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259697</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.319982838882</v>
+        <v>4066.665713193524</v>
       </c>
       <c r="W44" t="n">
-        <v>2806.319982838882</v>
+        <v>3661.810258604557</v>
       </c>
       <c r="X44" t="n">
-        <v>2806.319982838882</v>
+        <v>3242.667795183868</v>
       </c>
       <c r="Y44" t="n">
-        <v>2398.033859138535</v>
+        <v>2834.381671483521</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.786009559577</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2637.229517630298</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2358.796516883403</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984396</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O9" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458928</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>884.1022829978592</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>701.5799957097203</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>104.422527401917</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10360,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10589,22 +10591,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>884.1022829978592</v>
       </c>
       <c r="P41" t="n">
-        <v>121.2143535006462</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11142,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>852.0369646460715</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163981</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>884.1022829978592</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>110.7913121651055</v>
       </c>
       <c r="G11" t="n">
-        <v>106.6699402592727</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>14.50199051496143</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>237.2493379126156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.146865729424178</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.9863699957346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.36113619101545</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>117.7661826744361</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>65.48800580459465</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>29.11146680044124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.6500182959525</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.4236523045815</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>69.7165723808092</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>206.5055509783925</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>110.791312165105</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>216.2362286424011</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>110.7913121651054</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>219.6821521891022</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437131.8541350162</v>
+        <v>619344.8778620178</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437131.8541350162</v>
+        <v>619344.8778620178</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660444.0152056239</v>
+        <v>660444.015205624</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660444.015205624</v>
+        <v>660444.0152056239</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660444.015205624</v>
+        <v>660444.0152056239</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660444.015205624</v>
+        <v>660444.0152056239</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437131.8541350162</v>
+        <v>619344.8778620178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437131.8541350162</v>
+        <v>619344.8778620178</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26322,10 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172706</v>
       </c>
       <c r="F2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172706</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
@@ -26350,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172705</v>
       </c>
       <c r="P2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="C4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403626</v>
       </c>
       <c r="F4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403626</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="O4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403626</v>
       </c>
       <c r="P4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403626</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,16 +26478,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109902.3174862199</v>
+        <v>-109902.31748622</v>
       </c>
       <c r="C6" t="n">
+        <v>113797.3810978249</v>
+      </c>
+      <c r="D6" t="n">
         <v>113797.381097825</v>
       </c>
-      <c r="D6" t="n">
-        <v>113797.3810978249</v>
-      </c>
       <c r="E6" t="n">
-        <v>119757.3131528524</v>
+        <v>22593.01262915789</v>
       </c>
       <c r="F6" t="n">
-        <v>129928.3097533086</v>
+        <v>173258.7662009057</v>
       </c>
       <c r="G6" t="n">
-        <v>24972.70909205817</v>
+        <v>153942.3768655593</v>
       </c>
       <c r="H6" t="n">
         <v>183032.1860381674</v>
@@ -26543,7 +26545,7 @@
         <v>183032.1860381674</v>
       </c>
       <c r="J6" t="n">
-        <v>8380.837320461229</v>
+        <v>8380.8373204612</v>
       </c>
       <c r="K6" t="n">
         <v>183032.1860381674</v>
@@ -26552,16 +26554,16 @@
         <v>183032.1860381674</v>
       </c>
       <c r="M6" t="n">
-        <v>174543.1043348266</v>
+        <v>57281.09770247678</v>
       </c>
       <c r="N6" t="n">
-        <v>183032.1860381674</v>
+        <v>183032.1860381673</v>
       </c>
       <c r="O6" t="n">
-        <v>129928.3097533086</v>
+        <v>173258.7662009055</v>
       </c>
       <c r="P6" t="n">
-        <v>129928.3097533085</v>
+        <v>173258.7662009057</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990751</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990751</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>369.8422500230728</v>
+        <v>265.6623183857077</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.1542396129197</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.0811030342888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>140.7232059832937</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>3.329665100430077</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28017,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.86827275269496</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30447,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984396</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O9" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458928</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,10 +35649,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>884.1022829978592</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>701.5799957097203</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>104.422527401917</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37080,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>884.1022829978592</v>
       </c>
       <c r="P41" t="n">
-        <v>121.2143535006462</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>852.0369646460715</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163981</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>884.1022829978592</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861043.5170008271</v>
+        <v>860437.4293719302</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079718</v>
+        <v>606553.2040797151</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7448307.896268604</v>
+        <v>7448307.896268605</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>163.7746790075801</v>
+        <v>160.7459105914165</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738364</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.9735834668218</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>162.8242666525131</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>302.2827577803681</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1059,13 +1059,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>51.78170327785423</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40840756313693</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>14.14416275345371</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>92.96608628013384</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>312.7974431297788</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1536,13 +1536,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.31336456303993</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>248.1994684004102</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>191.0148624863776</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365720342</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308167769</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872123</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480023854</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>73.01514676193457</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>69.45405731752525</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>22.28534392847805</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>369.1415117676442</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.8387674910483</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>126.8355823247567</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0564930766996</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>322.9697359233056</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>130.983089089443</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805517129</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1518.10729979241</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C2" t="n">
-        <v>1484.005231016238</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D2" t="n">
-        <v>1048.095446190682</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932282</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.569699866109</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>1963.754649317546</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X2" t="n">
-        <v>1544.612185896857</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.366466236914</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,13 +4500,13 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.45937714051</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>852.5762146508135</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C5" t="n">
-        <v>818.474145874641</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>786.6047650894895</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4600,19 +4600,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.161908836068</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1278.875785135721</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2545.844385276825</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2267.41138452993</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1980.45587640036</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.9996686250441</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>859.8975998488716</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>828.0282190637201</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>798.2938782624194</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>916.2588350695479</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="9">
@@ -4895,10 +4895,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>67.68824961292523</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>67.68824961292523</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2408.082100998613</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1969.939628182037</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.029843356481</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1100.255098514776</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885361</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2333.516638580383</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2333.516638580383</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580383</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.69630515069</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984086</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.50496594268</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259697</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193524</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.810258604557</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.667795183868</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y11" t="n">
-        <v>2834.381671483521</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5111,16 +5111,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538037</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
         <v>1332.801988003553</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2674.873217292374</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002201</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.011475323127</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1680.86900250655</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1244.959217680994</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>811.1844728392896</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>383.3170432484973</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484973</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
         <v>2438.435044982809</v>
@@ -5293,37 +5293,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.69630515069</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.006179984086</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4619.501567394155</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4399.434340267194</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4140.212037584211</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>3777.595087518037</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>3372.73963292907</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>2953.597169508381</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2545.311045808035</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5348,49 +5348,49 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885361</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.2661363957848</v>
+        <v>867.3348106469373</v>
       </c>
       <c r="C16" t="n">
-        <v>771.7044248790097</v>
+        <v>694.7730991301622</v>
       </c>
       <c r="D16" t="n">
-        <v>605.8264320805324</v>
+        <v>528.8951063316849</v>
       </c>
       <c r="E16" t="n">
-        <v>436.0684283312697</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F16" t="n">
-        <v>259.361374293026</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885361</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885361</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
         <v>1332.801988003553</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.311093757424</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.878093010529</v>
+        <v>2090.946767261682</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.92258488096</v>
+        <v>1803.991259132112</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.896180467251</v>
+        <v>1531.964854718404</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.504425800664</v>
+        <v>1286.573100051816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.084755114772</v>
+        <v>1059.153429365924</v>
       </c>
     </row>
     <row r="17">
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759166</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242391</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443914</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694651</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>2499.553657656407</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636181</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636181</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244352</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.382823542349</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.07037637391</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244341</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830632</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164045</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478153</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812565</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812565</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812565</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812565</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812565</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812565</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>990.252953592607</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>824.3749607941297</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>654.6169570448669</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>477.9099030066232</v>
       </c>
       <c r="G31" t="n">
-        <v>264.6734629930079</v>
+        <v>312.3186280324508</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>172.4164537228253</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3343.699788461171</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3171.138076944395</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3005.260084145918</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2835.502080396655</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2658.795026358412</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4845.744745822809</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4567.311745075915</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4280.356236946345</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4008.329832532637</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3762.938077866049</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3535.518407180158</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,19 +7183,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7216,10 +7216,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885361</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
         <v>2438.435044982809</v>
@@ -7426,37 +7426,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.69630515069</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984086</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.50496594268</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.50496594268</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3720.70810772761</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>3301.565644306921</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2893.279520606574</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7481,49 +7481,49 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885361</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>937.2866943184644</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>937.2866943184644</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>937.2866943184644</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>937.2866943184644</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1081.69693748336</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>909.1352259665852</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="D43" t="n">
-        <v>743.2572331681079</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>573.4992294188451</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>396.7921753806013</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>231.200900406429</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885361</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
         <v>1332.801988003553</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2305.308894098105</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.353385968535</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1746.326981554827</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1500.935226888239</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.515556202347</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2408.082100998613</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1489.533045096344</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1055.758300254639</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>627.8908706638467</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>226.4930392871106</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885361</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
         <v>2438.435044982809</v>
@@ -7663,37 +7663,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.69630515069</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984086</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.50496594268</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.50496594268</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4429.282663259697</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V44" t="n">
-        <v>4066.665713193524</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W44" t="n">
-        <v>3661.810258604557</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X44" t="n">
-        <v>3242.667795183868</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y44" t="n">
-        <v>2834.381671483521</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7718,16 +7718,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
         <v>1099.098144071247</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>1006.950267132258</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538037</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
         <v>1332.801988003553</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2305.308894098105</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1837.458304002201</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>1198.768885851245</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>88.52591951400984</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,11 +8455,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>979.9409695458928</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>884.1022829978592</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978592</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>852.0369646460715</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.1022829978592</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.0704884999249</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110.7913121651055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.50199051496143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>110.7913121651016</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.63380825304816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>160.7958207444039</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444067</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>65.48800580459465</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.31929241554616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6500182959525</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>52.89506301241448</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>110.791312165105</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.00051207685064</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.446659489829642</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>110.7913121651054</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>155.2557639217729</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.8531101735157</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619344.8778620178</v>
+        <v>619344.8778620182</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619344.8778620178</v>
+        <v>619344.8778620183</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660444.0152056239</v>
+        <v>660444.015205624</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660444.015205624</v>
+        <v>660444.0152056239</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619344.8778620178</v>
+        <v>619344.8778620183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619344.8778620178</v>
+        <v>619344.8778620183</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172706</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="F2" t="n">
-        <v>333498.2429172706</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="G2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.869292713</v>
       </c>
       <c r="H2" t="n">
         <v>355628.8692927128</v>
@@ -26352,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172705</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717477</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260801</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="C4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>88974.20123403626</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="F4" t="n">
-        <v>88974.20123403626</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875289</v>
@@ -26438,28 +26438,28 @@
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="L4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="M4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>88974.20123403626</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="P4" t="n">
-        <v>88974.20123403626</v>
+        <v>88974.2012340363</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26478,16 +26478,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>113797.381097825</v>
       </c>
       <c r="E6" t="n">
-        <v>22593.01262915789</v>
+        <v>22487.82300690303</v>
       </c>
       <c r="F6" t="n">
-        <v>173258.7662009057</v>
+        <v>173153.5765786511</v>
       </c>
       <c r="G6" t="n">
-        <v>153942.3768655593</v>
+        <v>153919.1525261772</v>
       </c>
       <c r="H6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987847</v>
       </c>
       <c r="I6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987848</v>
       </c>
       <c r="J6" t="n">
-        <v>8380.8373204612</v>
+        <v>8357.612981078588</v>
       </c>
       <c r="K6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987848</v>
       </c>
       <c r="L6" t="n">
-        <v>183032.1860381674</v>
+        <v>183008.9616987847</v>
       </c>
       <c r="M6" t="n">
-        <v>57281.09770247678</v>
+        <v>57257.87336309393</v>
       </c>
       <c r="N6" t="n">
-        <v>183032.1860381673</v>
+        <v>183008.9616987848</v>
       </c>
       <c r="O6" t="n">
-        <v>173258.7662009055</v>
+        <v>173153.5765786511</v>
       </c>
       <c r="P6" t="n">
-        <v>173258.7662009057</v>
+        <v>173153.5765786511</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26798,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990751</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990751</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>265.6623183857077</v>
+        <v>268.6910868018713</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>102.986369995735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>270.9367814358978</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>127.1542396129197</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,76 +27852,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>370.2548715022044</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="H8" t="n">
+        <v>286.2388530112159</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>82.81535507800136</v>
+      </c>
+      <c r="T8" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>370.1803477317474</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>73.62918697961771</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>88.52591951400984</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,11 +35175,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35412,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>979.9409695458928</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>884.1022829978592</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,19 +36606,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132081</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978592</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>852.0369646460715</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38019,7 +38019,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.1022829978592</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
